--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T10:42:30+00:00</t>
+    <t>2022-08-30T07:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -489,7 +489,7 @@
 この検査項目に割り当てられた一意の識別子。リソースの識別子やシステム的なシーケンスではなく、ビジネスID。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】当該検査項目に対して、施設内で割り振られる一意の識別子があればそれを使用する。なければ次のルールを参考に一意となる識別子を生成し設定する。
+    <t>【JP Core仕様】当該検査項目に対して、施設内で割り振られる一意の識別子があればそれを使用する。なければ次のルールを参考に一意となる識別子を生成し設定する。
 アプリケーション側のデータベースにおけるフィールド長の定義については、最低64バイトを確保すること。
 --- 参考 ---
 次の項目を順にセパレータ「_(アンダースコア)」で連結し、 identifier.value に設定する。グループ項目でない場合など、該当コード／番号がない場合はセパレータを連続で連結する。各コードはローカルコードを使用し、必ず設定できること。
@@ -734,7 +734,7 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-【JP-Core仕様】オーダ情報がある場合、本プロファイルでは ServiceRequest のリソースを参照する。オーダIDの情報はここで使用する。</t>
+【JP Core仕様】オーダ情報がある場合、本プロファイルでは ServiceRequest のリソースを参照する。オーダIDの情報はここで使用する。</t>
   </si>
   <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -768,7 +768,7 @@
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
-【JP-Core仕様】当面は使用しない。</t>
+【JP Core仕様】当面は使用しない。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -791,7 +791,7 @@
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.
-【JP-Core仕様】v2.5の「F」に相当する値は「final」であるが、ここでは 必須コード表「ObservationStatus」より、全てのコード値を使用可とする。
+【JP Core仕様】v2.5の「F」に相当する値は「final」であるが、ここでは 必須コード表「ObservationStatus」より、全てのコード値を使用可とする。
 (registered | preliminary | final | amended |   corrected | cancelled | entered-in-error | unknown)</t>
   </si>
   <si>
@@ -830,7 +830,7 @@
   </si>
   <si>
     <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP-Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。
+【JP Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。
 (social-history | vital-signs | imaging | laboratory | procedure | survey | exam | therapy | activity)</t>
   </si>
   <si>
@@ -873,7 +873,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-【JP-Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。</t>
+【JP Core仕様】推奨コード表「ObservationCategoryCodes」より、本プロファイルでは「laboratory」固定とする。</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -989,7 +989,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-【JP-Core仕様】SS-MIX2にならい、標準コード、ローカルコードの2つを設定可能とし、いずれか一方は必須とする。さらにJLAC10とJLAC11などの複数の標準コードも設定できるよう、上限は設けない。
+【JP Core仕様】SS-MIX2にならい、標準コード、ローカルコードの2つを設定可能とし、いずれか一方は必須とする。さらにJLAC10とJLAC11などの複数の標準コードも設定できるよう、上限は設けない。
 標準コード、ローカルコードの2つまで格納可。順不同。
 SS-MIX2だとCWE.1 ～CWE.3に標準コード、CWE.4～CWE.6にローカルコード、など（順不同）。</t>
   </si>
@@ -1011,7 +1011,7 @@
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.
-【JP-Core仕様】標準コードの場合、JLAC10を表すURIを設定。
+【JP Core仕様】標準コードの場合、JLAC10を表すURIを設定。
 URIは本WGで定義する。</t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
   </si>
   <si>
     <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.
-【JP-Core仕様】当面は未使用とする。</t>
+【JP Core仕様】当面は未使用とする。</t>
   </si>
   <si>
     <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
@@ -1131,7 +1131,7 @@
   </si>
   <si>
     <t>Very often the text is the same as a displayName of one of the codings.
-【JP-Core仕様】本プロファイルでは、表示名として必須とする。
+【JP Core仕様】本プロファイルでは、表示名として必須とする。
 多くの場合、coding.display と同一になるが、coding.display に異なる複数の表現が格納される場合を想定し、code間で共通の表現として必須とする。</t>
   </si>
   <si>
@@ -1150,7 +1150,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP-Core仕様】本プロファイルでは、Patient 限定、かつ必須とする。</t>
+【JP Core仕様】本プロファイルでは、Patient 限定、かつ必須とする。</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -1183,7 +1183,7 @@
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-【JP-Core仕様】当面は未使用とする。</t>
+【JP Core仕様】当面は未使用とする。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1208,7 +1208,7 @@
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-【JP-Core仕様】入院外来の区別や所在場所、担当診療科の情報に使用する。
+【JP Core仕様】入院外来の区別や所在場所、担当診療科の情報に使用する。
 ※本プロファイルの用途では通常は必須と考えられるが、ユースケースにより使用されない場合を考慮し、1..1に制約しない。</t>
   </si>
   <si>
@@ -1246,7 +1246,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP-Core仕様】本プロファイルでは、検体採取日時を設定し、必須とする。
+【JP Core仕様】本プロファイルでは、検体採取日時を設定し、必須とする。
 effectiveInstant
 instant型はイベント発生のログ時間であり、未使用とする。</t>
   </si>
@@ -1281,7 +1281,7 @@
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
-【JP-Core仕様】検査結果が**システムにより**Observationリソースに格納または更新された日時。</t>
+【JP Core仕様】検査結果が**システムにより**Observationリソースに格納または更新された日時。</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1308,7 +1308,7 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-【JP-Core仕様】検査に直接責任を負う個人(つまり検査を実行、もしくは検証した人)の識別子。</t>
+【JP Core仕様】検査に直接責任を負う個人(つまり検査を実行、もしくは検証した人)の識別子。</t>
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
@@ -1341,7 +1341,7 @@
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP-Core仕様】valueQuantity　：OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)
+【JP Core仕様】valueQuantity　：OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)
 valueQuantity.value　：OBX-5(結果値)
 valueQuantity.comparator　：SS-MIX2 検体検査結果メッセージでは未使用となっているデータ型だが、SN型のSN.1(比較演算子)が該当する。検査値の「0未満」の場合の「未満」などに相当するコードを設定。
 valueQuantity.unit　：OBX-6(単位) CWE.2 テキスト
@@ -1399,7 +1399,7 @@
   <si>
     <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.
-【JP-Core仕様】SS-MIX2で未使用だが、valueの欠落時に使用する必要があり、重要な項目である。
+【JP Core仕様】SS-MIX2で未使用だが、valueの欠落時に使用する必要があり、重要な項目である。
 制約「obs-6」に示す通り、valueが存在する場合、当該項目は存在してはならない。
 textのみでの使用は基本的に不可とし、必ずcodingを設定すること。
 (unknown |   asked-unknown |   temp-unknown |   not-asked |   asked-declined | masked | not-applicable | unsupported | as-text | error |   not-a-number |   negative-infinity |   positive-infinity | not-performed | not-permitted)</t>
@@ -1436,9 +1436,9 @@
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
-【JP-Core仕様】拡張可コード表「ObservationInterpretationCodes」を使用する。
+【JP Core仕様】拡張可コード表「ObservationInterpretationCodes」を使用する。
 コード表が大きいため、下記参照。
-https://www.hl7.org/fhir/valueset-observation-interpretation.html</t>
+https://www.hl7.org/fhir/R4/valueset-observation-interpretation.html</t>
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.
@@ -1571,7 +1571,7 @@
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).
-【JP-Core仕様】当面は未使用とする。</t>
+【JP Core仕様】当面は未使用とする。</t>
   </si>
   <si>
     <t>example</t>
@@ -1604,7 +1604,7 @@
   <si>
     <t>Only used if not implicit in code for Observation.code.
 Observation.code の code から測定方法が暗黙的でない場合にのみ使用する。
-【JP-Core仕様】Observation.code に JLAC10コードを使用する場合、測定方法コードが含まれているため method は使用しない。Observation.code から測定方法が判明しない場合や、実際の測定方法が異なる場合に使用することになるが、現状では運用が困難と想定されるため、当面は未使用とする。</t>
+【JP Core仕様】Observation.code に JLAC10コードを使用する場合、測定方法コードが含まれているため method は使用しない。Observation.code から測定方法が判明しない場合や、実際の測定方法が異なる場合に使用することになるが、現状では運用が困難と想定されるため、当面は未使用とする。</t>
   </si>
   <si>
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
@@ -1635,7 +1635,7 @@
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).
-【JP-Core仕様】検体検査プロファイルでは必須とする。</t>
+【JP Core仕様】検体検査プロファイルでは必須とする。</t>
   </si>
   <si>
     <t>&lt; 123038009 |Specimen|</t>
@@ -1665,7 +1665,7 @@
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.
-【JP-Core仕様】検査に使用した機器等の情報に使用する。</t>
+【JP Core仕様】検査に使用した機器等の情報に使用する。</t>
   </si>
   <si>
     <t>&lt; 49062001 |Device|</t>
@@ -1695,7 +1695,7 @@
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
-【JP-Core仕様】可能な限りlow、highに構造化すべき。構造化できない場合、あるいはlow、highに該当しない場合はtextを使用。</t>
+【JP Core仕様】可能な限りlow、highに構造化すべき。構造化できない場合、あるいはlow、highに該当しない場合はtextを使用。</t>
   </si>
   <si>
     <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.
@@ -1880,7 +1880,7 @@
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP-Core仕様】1検査で複数の検査項目が実施される場合の親検査項目を設定する。</t>
+【JP Core仕様】1検査で複数の検査項目が実施される場合の親検査項目を設定する。</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
